--- a/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H2">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I2">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J2">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>714.2800392673868</v>
+        <v>787.1317651101766</v>
       </c>
       <c r="R2">
-        <v>714.2800392673868</v>
+        <v>7084.185885991589</v>
       </c>
       <c r="S2">
-        <v>0.05849412258087869</v>
+        <v>0.05772417629900294</v>
       </c>
       <c r="T2">
-        <v>0.05849412258087869</v>
+        <v>0.06428512779441363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H3">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I3">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J3">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>107.379693654048</v>
+        <v>128.569381771044</v>
       </c>
       <c r="R3">
-        <v>107.379693654048</v>
+        <v>1157.124435939396</v>
       </c>
       <c r="S3">
-        <v>0.008793583213860184</v>
+        <v>0.009428614101181324</v>
       </c>
       <c r="T3">
-        <v>0.008793583213860184</v>
+        <v>0.01050027391086603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H4">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I4">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J4">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>139.3955261685467</v>
+        <v>170.438444083095</v>
       </c>
       <c r="R4">
-        <v>139.3955261685467</v>
+        <v>1533.945996747855</v>
       </c>
       <c r="S4">
-        <v>0.01141543728884284</v>
+        <v>0.01249907478070488</v>
       </c>
       <c r="T4">
-        <v>0.01141543728884284</v>
+        <v>0.01391972430108847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H5">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I5">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J5">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>188.4264373445214</v>
+        <v>199.221538807669</v>
       </c>
       <c r="R5">
-        <v>188.4264373445214</v>
+        <v>1792.993849269021</v>
       </c>
       <c r="S5">
-        <v>0.01543069737019871</v>
+        <v>0.01460987821661964</v>
       </c>
       <c r="T5">
-        <v>0.01543069737019871</v>
+        <v>0.01627044244600917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H6">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I6">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J6">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>308.469996060954</v>
+        <v>326.419281924112</v>
       </c>
       <c r="R6">
-        <v>308.469996060954</v>
+        <v>1958.515691544672</v>
       </c>
       <c r="S6">
-        <v>0.02526135516907264</v>
+        <v>0.02393790342655525</v>
       </c>
       <c r="T6">
-        <v>0.02526135516907264</v>
+        <v>0.01777246299638715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H7">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J7">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>1185.1333734928</v>
+        <v>1329.848077784284</v>
       </c>
       <c r="R7">
-        <v>1185.1333734928</v>
+        <v>11968.63270005856</v>
       </c>
       <c r="S7">
-        <v>0.09705344264538146</v>
+        <v>0.09752418628686051</v>
       </c>
       <c r="T7">
-        <v>0.09705344264538146</v>
+        <v>0.1086088218222928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H8">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J8">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>178.1643775393345</v>
+        <v>217.216167341696</v>
       </c>
       <c r="R8">
-        <v>178.1643775393345</v>
+        <v>1954.945506075264</v>
       </c>
       <c r="S8">
-        <v>0.01459031243547116</v>
+        <v>0.01592951128947353</v>
       </c>
       <c r="T8">
-        <v>0.01459031243547116</v>
+        <v>0.01774006550811619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H9">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J9">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>231.2850438147146</v>
+        <v>287.95336091248</v>
       </c>
       <c r="R9">
-        <v>231.2850438147146</v>
+        <v>2591.58024821232</v>
       </c>
       <c r="S9">
-        <v>0.01894049246832919</v>
+        <v>0.02111701154491689</v>
       </c>
       <c r="T9">
-        <v>0.01894049246832919</v>
+        <v>0.02351717898527274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H10">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J10">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>312.6371269934751</v>
+        <v>336.5819957723627</v>
       </c>
       <c r="R10">
-        <v>312.6371269934751</v>
+        <v>3029.237961951264</v>
       </c>
       <c r="S10">
-        <v>0.0256026116149723</v>
+        <v>0.02468318434628872</v>
       </c>
       <c r="T10">
-        <v>0.0256026116149723</v>
+        <v>0.02748868432275314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H11">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J11">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N11">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O11">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P11">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q11">
-        <v>511.8133882447428</v>
+        <v>551.4807988440746</v>
       </c>
       <c r="R11">
-        <v>511.8133882447428</v>
+        <v>3308.884793064448</v>
       </c>
       <c r="S11">
-        <v>0.04191363810366215</v>
+        <v>0.04044275211474217</v>
       </c>
       <c r="T11">
-        <v>0.04191363810366215</v>
+        <v>0.03002632697707171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H12">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I12">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J12">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N12">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O12">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P12">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q12">
-        <v>1573.662836311975</v>
+        <v>1846.244847174444</v>
       </c>
       <c r="R12">
-        <v>1573.662836311975</v>
+        <v>16616.20362457</v>
       </c>
       <c r="S12">
-        <v>0.1288710614713783</v>
+        <v>0.1353940569715238</v>
       </c>
       <c r="T12">
-        <v>0.1288710614713783</v>
+        <v>0.1507829961909542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H13">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I13">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J13">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N13">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P13">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q13">
-        <v>236.5730861683559</v>
+        <v>301.5639428119999</v>
       </c>
       <c r="R13">
-        <v>236.5730861683559</v>
+        <v>2714.075485308</v>
       </c>
       <c r="S13">
-        <v>0.01937354306563277</v>
+        <v>0.02211514129132592</v>
       </c>
       <c r="T13">
-        <v>0.01937354306563277</v>
+        <v>0.02462875653245064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H14">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I14">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J14">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N14">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O14">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P14">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q14">
-        <v>307.1086226973207</v>
+        <v>399.769280185</v>
       </c>
       <c r="R14">
-        <v>307.1086226973207</v>
+        <v>3597.923521665</v>
       </c>
       <c r="S14">
-        <v>0.02514986900673722</v>
+        <v>0.02931701327679793</v>
       </c>
       <c r="T14">
-        <v>0.02514986900673722</v>
+        <v>0.03264919598483781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H15">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I15">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J15">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N15">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O15">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P15">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q15">
-        <v>415.1308527841132</v>
+        <v>467.2810268536667</v>
       </c>
       <c r="R15">
-        <v>415.1308527841132</v>
+        <v>4205.529241683</v>
       </c>
       <c r="S15">
-        <v>0.03399607108545914</v>
+        <v>0.03426797592332543</v>
       </c>
       <c r="T15">
-        <v>0.03399607108545914</v>
+        <v>0.03816288689986756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H16">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I16">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J16">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N16">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O16">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P16">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q16">
-        <v>679.6042759592045</v>
+        <v>765.6277436426666</v>
       </c>
       <c r="R16">
-        <v>679.6042759592045</v>
+        <v>4593.766461855999</v>
       </c>
       <c r="S16">
-        <v>0.05565444033018225</v>
+        <v>0.0561471824825301</v>
       </c>
       <c r="T16">
-        <v>0.05565444033018225</v>
+        <v>0.04168592818012552</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H17">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I17">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J17">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N17">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O17">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P17">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q17">
-        <v>1837.768980244731</v>
+        <v>1955.83785840011</v>
       </c>
       <c r="R17">
-        <v>1837.768980244731</v>
+        <v>17602.54072560099</v>
       </c>
       <c r="S17">
-        <v>0.1504993533293042</v>
+        <v>0.1434310421137045</v>
       </c>
       <c r="T17">
-        <v>0.1504993533293042</v>
+        <v>0.159733468074185</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H18">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I18">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J18">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N18">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P18">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q18">
-        <v>276.276893174833</v>
+        <v>319.464764916084</v>
       </c>
       <c r="R18">
-        <v>276.276893174833</v>
+        <v>2875.182884244756</v>
       </c>
       <c r="S18">
-        <v>0.02262498399396457</v>
+        <v>0.02342789508533473</v>
       </c>
       <c r="T18">
-        <v>0.02262498399396457</v>
+        <v>0.02609071841430282</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H19">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I19">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J19">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N19">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O19">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P19">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q19">
-        <v>358.6503330545253</v>
+        <v>423.499566705795</v>
       </c>
       <c r="R19">
-        <v>358.6503330545253</v>
+        <v>3811.496100352155</v>
       </c>
       <c r="S19">
-        <v>0.0293707445148289</v>
+        <v>0.03105726986847606</v>
       </c>
       <c r="T19">
-        <v>0.0293707445148289</v>
+        <v>0.03458725079243895</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H20">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I20">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J20">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N20">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O20">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P20">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q20">
-        <v>484.8018180165876</v>
+        <v>495.018807625209</v>
       </c>
       <c r="R20">
-        <v>484.8018180165876</v>
+        <v>4455.169268626881</v>
       </c>
       <c r="S20">
-        <v>0.03970159518888563</v>
+        <v>0.03630212143538653</v>
       </c>
       <c r="T20">
-        <v>0.03970159518888563</v>
+        <v>0.04042823415260159</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H21">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I21">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J21">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N21">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O21">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P21">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q21">
-        <v>793.661531797084</v>
+        <v>811.075372126032</v>
       </c>
       <c r="R21">
-        <v>793.661531797084</v>
+        <v>4866.452232756192</v>
       </c>
       <c r="S21">
-        <v>0.06499486528600558</v>
+        <v>0.05948007671349556</v>
       </c>
       <c r="T21">
-        <v>0.06499486528600558</v>
+        <v>0.04416040300505925</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H22">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I22">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J22">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N22">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O22">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P22">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q22">
-        <v>671.6403769185794</v>
+        <v>740.2785431485783</v>
       </c>
       <c r="R22">
-        <v>671.6403769185794</v>
+        <v>4441.67125889147</v>
       </c>
       <c r="S22">
-        <v>0.05500225734718602</v>
+        <v>0.05428820310548171</v>
       </c>
       <c r="T22">
-        <v>0.05500225734718602</v>
+        <v>0.04030574706731392</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H23">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I23">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J23">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N23">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P23">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q23">
-        <v>100.9695552925965</v>
+        <v>120.916419397278</v>
       </c>
       <c r="R23">
-        <v>100.9695552925965</v>
+        <v>725.4985163836679</v>
       </c>
       <c r="S23">
-        <v>0.008268641456479257</v>
+        <v>0.008867385385921599</v>
       </c>
       <c r="T23">
-        <v>0.008268641456479257</v>
+        <v>0.006583503819769327</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H24">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I24">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J24">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N24">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O24">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P24">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q24">
-        <v>131.0741706188977</v>
+        <v>160.2932681349525</v>
       </c>
       <c r="R24">
-        <v>131.0741706188977</v>
+        <v>961.759608809715</v>
       </c>
       <c r="S24">
-        <v>0.01073398132647339</v>
+        <v>0.01175507999994158</v>
       </c>
       <c r="T24">
-        <v>0.01073398132647339</v>
+        <v>0.008727444529948799</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H25">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I25">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J25">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N25">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O25">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P25">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q25">
-        <v>177.1781324441076</v>
+        <v>187.3630782664655</v>
       </c>
       <c r="R25">
-        <v>177.1781324441076</v>
+        <v>1124.178469598793</v>
       </c>
       <c r="S25">
-        <v>0.01450954643569023</v>
+        <v>0.01374023999687459</v>
       </c>
       <c r="T25">
-        <v>0.01450954643569023</v>
+        <v>0.01020130721368998</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H26">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I26">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J26">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N26">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O26">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P26">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q26">
-        <v>290.0555706903841</v>
+        <v>306.989504412344</v>
       </c>
       <c r="R26">
-        <v>290.0555706903841</v>
+        <v>1227.958017649376</v>
       </c>
       <c r="S26">
-        <v>0.02375335327112328</v>
+        <v>0.02251302394353412</v>
       </c>
       <c r="T26">
-        <v>0.02375335327112328</v>
+        <v>0.01114305007818349</v>
       </c>
     </row>
   </sheetData>
